--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.29283516317092</v>
+        <v>9.895758333333333</v>
       </c>
       <c r="H2">
-        <v>4.29283516317092</v>
+        <v>29.687275</v>
       </c>
       <c r="I2">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010318</v>
       </c>
       <c r="J2">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010316</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1972421231003</v>
+        <v>0.2113696666666667</v>
       </c>
       <c r="N2">
-        <v>0.1972421231003</v>
+        <v>0.634109</v>
       </c>
       <c r="O2">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925348</v>
       </c>
       <c r="P2">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925347</v>
       </c>
       <c r="Q2">
-        <v>0.846727921703455</v>
+        <v>2.091663140330556</v>
       </c>
       <c r="R2">
-        <v>0.846727921703455</v>
+        <v>18.824968262975</v>
       </c>
       <c r="S2">
-        <v>0.0001538580438901183</v>
+        <v>0.0003733850147812911</v>
       </c>
       <c r="T2">
-        <v>0.0001538580438901183</v>
+        <v>0.000373385014781291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.29283516317092</v>
+        <v>9.895758333333333</v>
       </c>
       <c r="H3">
-        <v>4.29283516317092</v>
+        <v>29.687275</v>
       </c>
       <c r="I3">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010318</v>
       </c>
       <c r="J3">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010316</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.58896373981385</v>
+        <v>1.589504333333333</v>
       </c>
       <c r="N3">
-        <v>1.58896373981385</v>
+        <v>4.768513</v>
       </c>
       <c r="O3">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725092</v>
       </c>
       <c r="P3">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725091</v>
       </c>
       <c r="Q3">
-        <v>6.821159415276464</v>
+        <v>15.72935075245278</v>
       </c>
       <c r="R3">
-        <v>6.821159415276464</v>
+        <v>141.564156772075</v>
       </c>
       <c r="S3">
-        <v>0.001239465733674786</v>
+        <v>0.002807863154425783</v>
       </c>
       <c r="T3">
-        <v>0.001239465733674786</v>
+        <v>0.002807863154425782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.29283516317092</v>
+        <v>9.895758333333333</v>
       </c>
       <c r="H4">
-        <v>4.29283516317092</v>
+        <v>29.687275</v>
       </c>
       <c r="I4">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010318</v>
       </c>
       <c r="J4">
-        <v>0.004298197636674108</v>
+        <v>0.009836335004010316</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.72397485904902</v>
+        <v>3.767380666666666</v>
       </c>
       <c r="N4">
-        <v>3.72397485904902</v>
+        <v>11.302142</v>
       </c>
       <c r="O4">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="P4">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="Q4">
-        <v>15.9864102216901</v>
+        <v>37.28108862700555</v>
       </c>
       <c r="R4">
-        <v>15.9864102216901</v>
+        <v>335.52979764305</v>
       </c>
       <c r="S4">
-        <v>0.002904873859109204</v>
+        <v>0.006655086834803244</v>
       </c>
       <c r="T4">
-        <v>0.002904873859109204</v>
+        <v>0.006655086834803243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>950.177897448365</v>
+        <v>950.6576336666667</v>
       </c>
       <c r="H5">
-        <v>950.177897448365</v>
+        <v>2851.972901</v>
       </c>
       <c r="I5">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724818</v>
       </c>
       <c r="J5">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724816</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1972421231003</v>
+        <v>0.2113696666666667</v>
       </c>
       <c r="N5">
-        <v>0.1972421231003</v>
+        <v>0.634109</v>
       </c>
       <c r="O5">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925348</v>
       </c>
       <c r="P5">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925347</v>
       </c>
       <c r="Q5">
-        <v>187.4151058156947</v>
+        <v>200.9401871422455</v>
       </c>
       <c r="R5">
-        <v>187.4151058156947</v>
+        <v>1808.461684280209</v>
       </c>
       <c r="S5">
-        <v>0.03405500260136827</v>
+        <v>0.03587004680610554</v>
       </c>
       <c r="T5">
-        <v>0.03405500260136827</v>
+        <v>0.03587004680610553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>950.177897448365</v>
+        <v>950.6576336666667</v>
       </c>
       <c r="H6">
-        <v>950.177897448365</v>
+        <v>2851.972901</v>
       </c>
       <c r="I6">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724818</v>
       </c>
       <c r="J6">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724816</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.58896373981385</v>
+        <v>1.589504333333333</v>
       </c>
       <c r="N6">
-        <v>1.58896373981385</v>
+        <v>4.768513</v>
       </c>
       <c r="O6">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725092</v>
       </c>
       <c r="P6">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725091</v>
       </c>
       <c r="Q6">
-        <v>1509.798225418015</v>
+        <v>1511.074428229579</v>
       </c>
       <c r="R6">
-        <v>1509.798225418015</v>
+        <v>13599.66985406621</v>
       </c>
       <c r="S6">
-        <v>0.274343854356728</v>
+        <v>0.2697435054628191</v>
       </c>
       <c r="T6">
-        <v>0.274343854356728</v>
+        <v>0.2697435054628189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>950.177897448365</v>
+        <v>950.6576336666667</v>
       </c>
       <c r="H7">
-        <v>950.177897448365</v>
+        <v>2851.972901</v>
       </c>
       <c r="I7">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724818</v>
       </c>
       <c r="J7">
-        <v>0.9513648295351349</v>
+        <v>0.9449490017724816</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.72397485904902</v>
+        <v>3.767380666666666</v>
       </c>
       <c r="N7">
-        <v>3.72397485904902</v>
+        <v>11.302142</v>
       </c>
       <c r="O7">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="P7">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="Q7">
-        <v>3538.438601721769</v>
+        <v>3581.489189694882</v>
       </c>
       <c r="R7">
-        <v>3538.438601721769</v>
+        <v>32233.40270725394</v>
       </c>
       <c r="S7">
-        <v>0.6429659725770387</v>
+        <v>0.6393354495035573</v>
       </c>
       <c r="T7">
-        <v>0.6429659725770387</v>
+        <v>0.6393354495035571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.2816575862919</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H8">
-        <v>44.2816575862919</v>
+        <v>136.463443</v>
       </c>
       <c r="I8">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350794</v>
       </c>
       <c r="J8">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350793</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1972421231003</v>
+        <v>0.2113696666666667</v>
       </c>
       <c r="N8">
-        <v>0.1972421231003</v>
+        <v>0.634109</v>
       </c>
       <c r="O8">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925348</v>
       </c>
       <c r="P8">
-        <v>0.03579594446224016</v>
+        <v>0.03795977003925347</v>
       </c>
       <c r="Q8">
-        <v>8.734208156720721</v>
+        <v>9.614744153031888</v>
       </c>
       <c r="R8">
-        <v>8.734208156720721</v>
+        <v>86.53269737728699</v>
       </c>
       <c r="S8">
-        <v>0.001587083816981776</v>
+        <v>0.001716338218366653</v>
       </c>
       <c r="T8">
-        <v>0.001587083816981776</v>
+        <v>0.001716338218366652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.2816575862919</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H9">
-        <v>44.2816575862919</v>
+        <v>136.463443</v>
       </c>
       <c r="I9">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350794</v>
       </c>
       <c r="J9">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350793</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.58896373981385</v>
+        <v>1.589504333333333</v>
       </c>
       <c r="N9">
-        <v>1.58896373981385</v>
+        <v>4.768513</v>
       </c>
       <c r="O9">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725092</v>
       </c>
       <c r="P9">
-        <v>0.2883687160169464</v>
+        <v>0.2854582680725091</v>
       </c>
       <c r="Q9">
-        <v>70.36194824347072</v>
+        <v>72.30307799669544</v>
       </c>
       <c r="R9">
-        <v>70.36194824347072</v>
+        <v>650.727701970259</v>
       </c>
       <c r="S9">
-        <v>0.01278539592654368</v>
+        <v>0.01290689945526435</v>
       </c>
       <c r="T9">
-        <v>0.01278539592654368</v>
+        <v>0.01290689945526435</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.2816575862919</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H10">
-        <v>44.2816575862919</v>
+        <v>136.463443</v>
       </c>
       <c r="I10">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350794</v>
       </c>
       <c r="J10">
-        <v>0.04433697282819099</v>
+        <v>0.04521466322350793</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.72397485904902</v>
+        <v>3.767380666666666</v>
       </c>
       <c r="N10">
-        <v>3.72397485904902</v>
+        <v>11.302142</v>
       </c>
       <c r="O10">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="P10">
-        <v>0.6758353395208134</v>
+        <v>0.6765819618882374</v>
       </c>
       <c r="Q10">
-        <v>164.9037795683683</v>
+        <v>171.3699122883229</v>
       </c>
       <c r="R10">
-        <v>164.9037795683683</v>
+        <v>1542.329210594906</v>
       </c>
       <c r="S10">
-        <v>0.02996449308466554</v>
+        <v>0.03059142554987693</v>
       </c>
       <c r="T10">
-        <v>0.02996449308466554</v>
+        <v>0.03059142554987693</v>
       </c>
     </row>
   </sheetData>
